--- a/data/trans_camb/P9_2_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P9_2_R-Habitat-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que dejo de hacer algunas tareas por problemas físicos</t>
+          <t>Población que dejó de hacer algunas tareas por problemas físicos</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 14,43</t>
+          <t>0,1; 14,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,63; 18,02</t>
+          <t>1,84; 18,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,97; 24,11</t>
+          <t>4,44; 23,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,7; 21,41</t>
+          <t>0,88; 23,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 18,63</t>
+          <t>-3,68; 17,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 14,38</t>
+          <t>-0,62; 14,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,69; 16,26</t>
+          <t>2,51; 15,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,89; 14,67</t>
+          <t>2,24; 14,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,72; 16,61</t>
+          <t>4,77; 16,11</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-15,63; 495,93</t>
+          <t>-9,71; 508,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 599,82</t>
+          <t>-3,89; 624,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>27,18; 825,62</t>
+          <t>33,15; 837,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,33; 226,64</t>
+          <t>3,47; 228,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-18,22; 191,81</t>
+          <t>-21,26; 176,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 153,37</t>
+          <t>-4,78; 159,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,12; 222,78</t>
+          <t>15,96; 207,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,18; 191,87</t>
+          <t>11,73; 193,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>33,42; 223,56</t>
+          <t>33,39; 218,77</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 7,77</t>
+          <t>0,54; 7,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 5,78</t>
+          <t>-0,7; 5,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,96; 9,0</t>
+          <t>2,13; 9,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,18; 14,58</t>
+          <t>6,35; 14,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,18; 17,57</t>
+          <t>8,7; 17,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,95; 12,99</t>
+          <t>5,42; 12,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,46; 9,87</t>
+          <t>4,27; 9,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,12; 10,95</t>
+          <t>5,09; 10,43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,91; 10,23</t>
+          <t>4,73; 9,92</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,96; 121,16</t>
+          <t>4,12; 119,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,84; 89,21</t>
+          <t>-8,73; 88,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21,23; 136,75</t>
+          <t>20,52; 141,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>53,39; 174,38</t>
+          <t>52,65; 180,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>78,88; 214,61</t>
+          <t>73,31; 221,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>48,19; 160,04</t>
+          <t>46,17; 163,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>43,26; 130,4</t>
+          <t>42,03; 128,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>50,79; 141,2</t>
+          <t>49,11; 133,39</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>49,63; 135,89</t>
+          <t>46,09; 131,91</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 6,42</t>
+          <t>0,86; 6,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 3,69</t>
+          <t>-1,75; 3,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,12; 6,03</t>
+          <t>0,23; 5,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,14; 11,96</t>
+          <t>5,03; 12,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 6,45</t>
+          <t>-0,08; 6,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,65; 8,87</t>
+          <t>2,91; 9,03</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,97; 8,41</t>
+          <t>3,99; 8,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 4,08</t>
+          <t>-0,08; 4,21</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,17; 6,44</t>
+          <t>2,2; 6,63</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,95; 93,39</t>
+          <t>8,31; 93,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-15,15; 52,08</t>
+          <t>-18,39; 50,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,44; 82,82</t>
+          <t>1,9; 86,57</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>33,4; 99,1</t>
+          <t>32,23; 98,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 53,48</t>
+          <t>-0,74; 54,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>17,25; 73,72</t>
+          <t>19,17; 77,82</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>32,16; 85,35</t>
+          <t>33,85; 86,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 41,45</t>
+          <t>-0,74; 42,77</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>18,51; 66,27</t>
+          <t>18,96; 67,86</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 2,97</t>
+          <t>-3,35; 3,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 1,35</t>
+          <t>-4,88; 1,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,1; 9,0</t>
+          <t>2,05; 9,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 4,6</t>
+          <t>-3,22; 4,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 3,56</t>
+          <t>-4,53; 3,51</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 3,87</t>
+          <t>-6,91; 4,03</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 3,08</t>
+          <t>-2,35; 2,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 1,7</t>
+          <t>-3,53; 1,41</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 5,67</t>
+          <t>-0,73; 5,47</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-31,34; 41,15</t>
+          <t>-30,96; 47,57</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-43,65; 20,59</t>
+          <t>-45,51; 20,77</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>17,98; 125,1</t>
+          <t>18,82; 127,37</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-17,35; 31,24</t>
+          <t>-17,76; 33,08</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-22,82; 24,69</t>
+          <t>-23,96; 23,86</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-35,38; 25,05</t>
+          <t>-36,37; 26,24</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-14,63; 26,8</t>
+          <t>-16,63; 23,1</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-26,11; 15,35</t>
+          <t>-25,23; 12,55</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 48,57</t>
+          <t>-5,1; 45,58</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,31; 5,79</t>
+          <t>0,31; 5,82</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 4,2</t>
+          <t>-0,96; 4,07</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,93; 7,31</t>
+          <t>2,19; 7,34</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 5,2</t>
+          <t>-1,19; 5,71</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 3,6</t>
+          <t>-3,69; 3,19</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,86; 7,65</t>
+          <t>1,2; 7,52</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,3; 4,72</t>
+          <t>0,44; 4,91</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 2,93</t>
+          <t>-1,5; 3,03</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,49; 6,71</t>
+          <t>2,33; 7,15</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1,28; 83,35</t>
+          <t>2,96; 84,12</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-12,62; 62,91</t>
+          <t>-10,12; 60,43</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>21,07; 105,72</t>
+          <t>23,74; 104,85</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 34,78</t>
+          <t>-6,21; 36,48</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-18,94; 22,78</t>
+          <t>-19,39; 20,66</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>4,56; 49,23</t>
+          <t>6,23; 49,68</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>2,07; 40,17</t>
+          <t>3,0; 41,04</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 24,59</t>
+          <t>-10,97; 25,62</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>18,3; 57,49</t>
+          <t>16,74; 60,06</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>1,44; 4,26</t>
+          <t>1,33; 4,28</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 2,39</t>
+          <t>-0,22; 2,47</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>3,16; 6,16</t>
+          <t>3,2; 6,22</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>3,38; 7,02</t>
+          <t>3,39; 7,15</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1,27; 4,98</t>
+          <t>1,26; 4,87</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,44; 6,47</t>
+          <t>2,61; 6,42</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,93; 5,32</t>
+          <t>3,03; 5,47</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1,01; 3,37</t>
+          <t>1,02; 3,36</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>3,39; 5,97</t>
+          <t>3,48; 6,04</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>15,92; 55,59</t>
+          <t>14,68; 57,27</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 31,85</t>
+          <t>-3,23; 32,23</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>34,79; 83,17</t>
+          <t>35,94; 82,1</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>21,89; 51,02</t>
+          <t>22,05; 51,46</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>7,98; 36,11</t>
+          <t>7,85; 35,0</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>16,78; 47,11</t>
+          <t>17,49; 46,96</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>24,18; 48,43</t>
+          <t>25,82; 50,9</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>7,97; 30,45</t>
+          <t>8,56; 31,12</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>28,3; 54,87</t>
+          <t>29,07; 55,13</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P9_2_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P9_2_R-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,1; 14,46</t>
+          <t>-0,39; 14,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,84; 18,75</t>
+          <t>0,85; 17,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,44; 23,77</t>
+          <t>5,68; 23,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,88; 23,03</t>
+          <t>1,68; 21,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 17,01</t>
+          <t>-2,5; 17,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 14,91</t>
+          <t>-0,34; 15,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,51; 15,61</t>
+          <t>2,71; 15,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,24; 14,94</t>
+          <t>1,86; 14,95</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,77; 16,11</t>
+          <t>4,5; 16,65</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,71; 508,42</t>
+          <t>-10,22; 542,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 624,77</t>
+          <t>-7,09; 646,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>33,15; 837,66</t>
+          <t>45,82; 757,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,47; 228,6</t>
+          <t>8,23; 240,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-21,26; 176,9</t>
+          <t>-18,05; 179,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 159,05</t>
+          <t>-3,16; 159,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,96; 207,06</t>
+          <t>19,62; 225,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,73; 193,96</t>
+          <t>9,51; 209,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>33,39; 218,77</t>
+          <t>32,39; 227,76</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,54; 7,62</t>
+          <t>-0,01; 7,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 5,98</t>
+          <t>-0,5; 5,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,13; 9,14</t>
+          <t>1,97; 9,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,35; 14,56</t>
+          <t>6,25; 14,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,7; 17,65</t>
+          <t>9,08; 17,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,42; 12,85</t>
+          <t>5,89; 13,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,27; 9,91</t>
+          <t>4,46; 9,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,09; 10,43</t>
+          <t>5,1; 10,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,73; 9,92</t>
+          <t>4,75; 9,93</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,12; 119,8</t>
+          <t>-0,9; 111,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 88,92</t>
+          <t>-6,32; 90,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>20,52; 141,64</t>
+          <t>16,0; 139,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>52,65; 180,77</t>
+          <t>53,02; 178,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>73,31; 221,99</t>
+          <t>76,48; 214,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>46,17; 163,63</t>
+          <t>50,46; 162,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>42,03; 128,94</t>
+          <t>44,04; 126,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>49,11; 133,39</t>
+          <t>49,74; 141,44</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>46,09; 131,91</t>
+          <t>46,34; 127,11</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,86; 6,51</t>
+          <t>1,0; 6,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 3,47</t>
+          <t>-1,58; 3,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,23; 5,97</t>
+          <t>0,34; 6,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,03; 12,08</t>
+          <t>5,02; 12,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 6,44</t>
+          <t>-0,15; 6,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,91; 9,03</t>
+          <t>2,76; 8,83</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,99; 8,5</t>
+          <t>3,97; 8,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 4,21</t>
+          <t>-0,12; 4,15</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,2; 6,63</t>
+          <t>2,31; 6,39</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,31; 93,63</t>
+          <t>9,39; 92,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-18,39; 50,03</t>
+          <t>-17,3; 48,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,9; 86,57</t>
+          <t>3,63; 89,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>32,23; 98,03</t>
+          <t>32,9; 103,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 54,09</t>
+          <t>-0,62; 56,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>19,17; 77,82</t>
+          <t>17,34; 74,68</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>33,85; 86,91</t>
+          <t>33,53; 85,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 42,77</t>
+          <t>-1,07; 40,8</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>18,96; 67,86</t>
+          <t>19,71; 64,86</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 3,39</t>
+          <t>-3,41; 2,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 1,43</t>
+          <t>-4,9; 1,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,05; 9,21</t>
+          <t>2,22; 9,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 4,77</t>
+          <t>-2,75; 4,95</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 3,51</t>
+          <t>-4,69; 3,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 4,03</t>
+          <t>-7,4; 3,95</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 2,73</t>
+          <t>-2,33; 2,59</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 1,41</t>
+          <t>-3,6; 1,49</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 5,47</t>
+          <t>-1,37; 5,54</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-30,96; 47,57</t>
+          <t>-32,14; 39,67</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-45,51; 20,77</t>
+          <t>-45,69; 15,06</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>18,82; 127,37</t>
+          <t>21,07; 125,83</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-17,76; 33,08</t>
+          <t>-15,16; 33,79</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-23,96; 23,86</t>
+          <t>-25,54; 21,24</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-36,37; 26,24</t>
+          <t>-38,22; 25,44</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-16,63; 23,1</t>
+          <t>-16,73; 22,15</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-25,23; 12,55</t>
+          <t>-25,83; 12,68</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 45,58</t>
+          <t>-9,47; 46,64</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,31; 5,82</t>
+          <t>0,31; 5,65</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 4,07</t>
+          <t>-0,98; 4,16</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,19; 7,34</t>
+          <t>1,71; 7,18</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 5,71</t>
+          <t>-1,24; 5,44</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 3,19</t>
+          <t>-3,65; 3,21</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,2; 7,52</t>
+          <t>0,78; 7,7</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,44; 4,91</t>
+          <t>0,45; 4,84</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 3,03</t>
+          <t>-1,55; 2,91</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,33; 7,15</t>
+          <t>2,17; 6,71</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2,96; 84,12</t>
+          <t>3,01; 81,87</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-10,12; 60,43</t>
+          <t>-10,77; 61,42</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>23,74; 104,85</t>
+          <t>16,93; 105,96</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 36,48</t>
+          <t>-6,71; 35,06</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-19,39; 20,66</t>
+          <t>-19,52; 21,06</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>6,23; 49,68</t>
+          <t>4,0; 49,6</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>3,0; 41,04</t>
+          <t>3,27; 41,67</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-10,97; 25,62</t>
+          <t>-11,32; 24,72</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>16,74; 60,06</t>
+          <t>15,26; 57,0</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>1,33; 4,28</t>
+          <t>1,34; 4,35</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 2,47</t>
+          <t>-0,46; 2,39</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>3,2; 6,22</t>
+          <t>3,15; 6,23</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>3,39; 7,15</t>
+          <t>3,59; 7,28</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1,26; 4,87</t>
+          <t>1,27; 4,87</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,61; 6,42</t>
+          <t>2,55; 6,42</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>3,03; 5,47</t>
+          <t>2,9; 5,37</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1,02; 3,36</t>
+          <t>1,02; 3,34</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>3,48; 6,04</t>
+          <t>3,52; 6,1</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>14,68; 57,27</t>
+          <t>14,25; 55,93</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 32,23</t>
+          <t>-5,75; 31,06</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>35,94; 82,1</t>
+          <t>35,43; 81,86</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>22,05; 51,46</t>
+          <t>22,39; 53,08</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>7,85; 35,0</t>
+          <t>8,12; 35,39</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>17,49; 46,96</t>
+          <t>16,68; 46,5</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>25,82; 50,9</t>
+          <t>23,61; 48,56</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>8,56; 31,12</t>
+          <t>8,38; 30,72</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>29,07; 55,13</t>
+          <t>29,71; 56,42</t>
         </is>
       </c>
     </row>
